--- a/crawling_list.xlsx
+++ b/crawling_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DT0038\Desktop\python\new_amazon_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010B3D3-8900-43E1-BA07-66A921963DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485B0A36-DAC0-4567-930F-525AA20F2A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KEYWORD" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>KEYWORD</t>
   </si>
@@ -61,6 +61,14 @@
   </si>
   <si>
     <t>https://www.amazon.co.jp/gp/bestsellers/videogames/2465857051/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\\vnfs\share\02_共有資料\[RPA_他]\__Long</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -121,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,12 +152,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -160,6 +181,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -441,71 +464,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A78"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:6">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:6">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:6">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
@@ -696,75 +727,86 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{4EE5D318-A16A-4BC4-AE59-065A1D97F1D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF76F65-4C06-49B7-A65B-111734879B65}">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:6">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:6">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:6">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:6">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
@@ -958,6 +1000,7 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{4FDB3393-E53E-4BAE-8704-72F2C69A6427}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{4F045A8D-F379-4D5B-8A4F-508F8FE175F7}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{6E548279-2A5D-49BA-9BEC-BE02D3C8B98F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
